--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientCreate.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientCreate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,12 +85,13 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Create action happens successfully, and where there is an identifiable Patient subject associated with the create of the Resource.
-- Given a Resource Create is requested with a Patient subject
-- And OAuth is used to authorize both app and user
-- When an App requests a RESTful Create of a new Resource
-- And the new Resource is successfully created thus having an id assigned
-- Then an AuditEvent following this profile is recorded 
-- And when a user is known they are the Author, Informant, or Custodian</t>
+- Given a Resource Create is requested 
+- And that resource has a Patient subject or is otherwise associated with a Patient
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+- Then the AuditEvent recorded will conform</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -276,10 +277,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -298,7 +295,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -675,6 +672,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2207,7 +2208,7 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -2223,28 +2224,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2468,16 +2469,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2491,7 +2492,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2502,28 +2503,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2573,13 +2574,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2608,7 +2609,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2619,25 +2620,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2688,19 +2689,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2723,7 +2724,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2734,28 +2735,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2805,19 +2806,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2840,7 +2841,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2851,7 +2852,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2863,16 +2864,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2898,43 +2899,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2957,18 +2958,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2980,16 +2981,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3039,25 +3040,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3074,11 +3075,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3097,16 +3098,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3156,7 +3157,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3174,7 +3175,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3191,11 +3192,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3214,16 +3215,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3273,7 +3274,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3285,13 +3286,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3308,11 +3309,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3325,25 +3326,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3392,7 +3393,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3404,13 +3405,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3427,7 +3428,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3435,32 +3436,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3470,73 +3471,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3544,7 +3545,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3552,7 +3553,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3564,20 +3565,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3602,29 +3603,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3636,19 +3637,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3659,52 +3660,52 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3719,14 +3720,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3755,19 +3756,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3778,7 +3779,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3789,29 +3790,29 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3821,70 +3822,70 @@
         <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3906,7 +3907,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3918,16 +3919,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3977,42 +3978,42 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4020,34 +4021,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4096,42 +4097,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4142,28 +4143,28 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4189,55 +4190,55 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4248,7 +4249,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4259,19 +4260,19 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>209</v>
@@ -4328,19 +4329,19 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -4352,7 +4353,7 @@
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4383,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>214</v>
@@ -4421,7 +4422,7 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>218</v>
@@ -4457,7 +4458,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>220</v>
@@ -4559,13 +4560,13 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4574,7 +4575,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>235</v>
@@ -4608,7 +4609,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4620,7 +4621,7 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>242</v>
@@ -4683,7 +4684,7 @@
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4735,16 +4736,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4806,7 +4807,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4846,13 +4847,13 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>251</v>
@@ -4861,10 +4862,10 @@
         <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4925,13 +4926,13 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4959,7 +4960,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -5004,7 +5005,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>257</v>
@@ -5034,13 +5035,13 @@
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>259</v>
@@ -5159,7 +5160,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5193,16 +5194,16 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>276</v>
@@ -5272,13 +5273,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>281</v>
@@ -5312,7 +5313,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5324,7 +5325,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>287</v>
@@ -5389,13 +5390,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5429,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5441,7 +5442,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>293</v>
@@ -5506,13 +5507,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5543,19 +5544,19 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>299</v>
@@ -5622,16 +5623,16 @@
         <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5665,7 +5666,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5740,13 +5741,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>310</v>
@@ -5792,7 +5793,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>316</v>
@@ -5865,7 +5866,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5899,7 +5900,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5911,7 +5912,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>324</v>
@@ -5946,7 +5947,7 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X32" t="s" s="2">
         <v>327</v>
@@ -5976,13 +5977,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6016,7 +6017,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6091,13 +6092,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6143,7 +6144,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>242</v>
@@ -6206,7 +6207,7 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -6239,7 +6240,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6258,16 +6259,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6329,7 +6330,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6369,13 +6370,13 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>251</v>
@@ -6384,10 +6385,10 @@
         <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6448,13 +6449,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -6482,7 +6483,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6494,7 +6495,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>339</v>
@@ -6561,13 +6562,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6601,7 +6602,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6613,7 +6614,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>347</v>
@@ -6648,7 +6649,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>350</v>
@@ -6678,13 +6679,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6765,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>218</v>
@@ -6801,7 +6802,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6834,10 +6835,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6913,7 +6914,7 @@
         <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6922,7 +6923,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>235</v>
@@ -6956,7 +6957,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6968,7 +6969,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>242</v>
@@ -7031,7 +7032,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -7064,7 +7065,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7083,16 +7084,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7154,7 +7155,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -7194,13 +7195,13 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>251</v>
@@ -7209,10 +7210,10 @@
         <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7273,13 +7274,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -7304,10 +7305,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7352,7 +7353,7 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>257</v>
@@ -7382,13 +7383,13 @@
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>259</v>
@@ -7507,7 +7508,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7538,19 +7539,19 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>276</v>
@@ -7620,13 +7621,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>281</v>
@@ -7660,7 +7661,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7672,7 +7673,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -7737,13 +7738,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7777,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7789,7 +7790,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>293</v>
@@ -7854,13 +7855,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7891,19 +7892,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>299</v>
@@ -7970,16 +7971,16 @@
         <v>298</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8013,7 +8014,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8088,13 +8089,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>310</v>
@@ -8140,7 +8141,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>316</v>
@@ -8213,7 +8214,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8259,7 +8260,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>324</v>
@@ -8294,7 +8295,7 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>327</v>
@@ -8324,13 +8325,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8361,10 +8362,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8439,13 +8440,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8479,7 +8480,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8491,7 +8492,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>242</v>
@@ -8554,7 +8555,7 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -8587,7 +8588,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8606,16 +8607,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8677,7 +8678,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8717,13 +8718,13 @@
         <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>251</v>
@@ -8732,10 +8733,10 @@
         <v>252</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8796,13 +8797,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8830,7 +8831,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8842,7 +8843,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>339</v>
@@ -8909,13 +8910,13 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8949,7 +8950,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8961,7 +8962,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>347</v>
@@ -8996,7 +8997,7 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>350</v>
@@ -9026,13 +9027,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9113,7 +9114,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>218</v>
@@ -9149,7 +9150,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9182,10 +9183,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9261,7 +9262,7 @@
         <v>226</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9270,7 +9271,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>235</v>
@@ -9304,7 +9305,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9316,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>242</v>
@@ -9379,7 +9380,7 @@
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
@@ -9412,7 +9413,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9431,16 +9432,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9502,7 +9503,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9542,13 +9543,13 @@
         <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>251</v>
@@ -9557,10 +9558,10 @@
         <v>252</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9621,13 +9622,13 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -9652,10 +9653,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9700,7 +9701,7 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>257</v>
@@ -9730,13 +9731,13 @@
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>259</v>
@@ -9855,7 +9856,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9886,19 +9887,19 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>276</v>
@@ -9968,13 +9969,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>281</v>
@@ -10008,7 +10009,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -10020,7 +10021,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>287</v>
@@ -10085,13 +10086,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10125,7 +10126,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10137,7 +10138,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>293</v>
@@ -10202,13 +10203,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10239,19 +10240,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>299</v>
@@ -10318,16 +10319,16 @@
         <v>298</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10361,7 +10362,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10436,13 +10437,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>310</v>
@@ -10488,7 +10489,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>316</v>
@@ -10561,7 +10562,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10607,7 +10608,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>324</v>
@@ -10642,7 +10643,7 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>327</v>
@@ -10672,13 +10673,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10709,10 +10710,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10787,13 +10788,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10827,7 +10828,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10839,7 +10840,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>242</v>
@@ -10902,7 +10903,7 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10935,7 +10936,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10954,16 +10955,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11025,7 +11026,7 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11065,13 +11066,13 @@
         <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>251</v>
@@ -11080,10 +11081,10 @@
         <v>252</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -11144,13 +11145,13 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -11178,7 +11179,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11190,7 +11191,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>339</v>
@@ -11257,13 +11258,13 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11297,7 +11298,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11309,7 +11310,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>347</v>
@@ -11344,7 +11345,7 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>350</v>
@@ -11374,13 +11375,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11461,7 +11462,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>218</v>
@@ -11497,7 +11498,7 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11533,7 +11534,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11609,7 +11610,7 @@
         <v>226</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11618,7 +11619,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>235</v>
@@ -11652,7 +11653,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11664,7 +11665,7 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>242</v>
@@ -11727,7 +11728,7 @@
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
@@ -11760,7 +11761,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11779,16 +11780,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11850,7 +11851,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11890,13 +11891,13 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>251</v>
@@ -11905,10 +11906,10 @@
         <v>252</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11969,13 +11970,13 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
@@ -12003,7 +12004,7 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -12048,7 +12049,7 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
@@ -12076,13 +12077,13 @@
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>259</v>
@@ -12119,7 +12120,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -12201,7 +12202,7 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
@@ -12232,19 +12233,19 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>276</v>
@@ -12314,13 +12315,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>281</v>
@@ -12354,7 +12355,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12366,7 +12367,7 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>287</v>
@@ -12431,13 +12432,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12471,11 +12472,11 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12483,7 +12484,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>293</v>
@@ -12548,13 +12549,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12585,19 +12586,19 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>299</v>
@@ -12664,16 +12665,16 @@
         <v>298</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12707,7 +12708,7 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12782,13 +12783,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>310</v>
@@ -12834,7 +12835,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>316</v>
@@ -12907,7 +12908,7 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12953,7 +12954,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>324</v>
@@ -12988,7 +12989,7 @@
         <v>78</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>327</v>
@@ -13018,13 +13019,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13133,13 +13134,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13173,7 +13174,7 @@
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>78</v>
@@ -13185,7 +13186,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>242</v>
@@ -13248,7 +13249,7 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
@@ -13281,7 +13282,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13300,16 +13301,16 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13371,7 +13372,7 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13411,13 +13412,13 @@
         <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>251</v>
@@ -13426,10 +13427,10 @@
         <v>252</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
@@ -13490,13 +13491,13 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
@@ -13524,7 +13525,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13536,7 +13537,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>339</v>
@@ -13603,13 +13604,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13643,7 +13644,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13655,7 +13656,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>347</v>
@@ -13690,7 +13691,7 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>350</v>
@@ -13720,13 +13721,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13763,7 +13764,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13807,7 +13808,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>218</v>
@@ -13843,7 +13844,7 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13874,13 +13875,13 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13953,16 +13954,16 @@
         <v>366</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -13996,7 +13997,7 @@
         <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>78</v>
@@ -14008,7 +14009,7 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>242</v>
@@ -14071,7 +14072,7 @@
         <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
@@ -14104,7 +14105,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14123,16 +14124,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14194,7 +14195,7 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14234,13 +14235,13 @@
         <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>251</v>
@@ -14249,10 +14250,10 @@
         <v>252</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>78</v>
@@ -14313,13 +14314,13 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>78</v>
@@ -14347,7 +14348,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>78</v>
@@ -14359,7 +14360,7 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>378</v>
@@ -14424,13 +14425,13 @@
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14461,19 +14462,19 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>276</v>
@@ -14538,16 +14539,16 @@
         <v>383</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14593,7 +14594,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>390</v>
@@ -14628,7 +14629,7 @@
         <v>78</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X106" t="s" s="2">
         <v>393</v>
@@ -14664,7 +14665,7 @@
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14766,7 +14767,7 @@
         <v>78</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>397</v>
@@ -14793,7 +14794,7 @@
         <v>405</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>406</v>
@@ -14815,7 +14816,7 @@
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>78</v>
@@ -14827,7 +14828,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>242</v>
@@ -14890,7 +14891,7 @@
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
@@ -14923,7 +14924,7 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14942,16 +14943,16 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15013,7 +15014,7 @@
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>78</v>
@@ -15053,13 +15054,13 @@
         <v>78</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>251</v>
@@ -15068,10 +15069,10 @@
         <v>252</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>78</v>
@@ -15132,13 +15133,13 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>78</v>
@@ -15166,16 +15167,16 @@
         <v>79</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>412</v>
@@ -15241,13 +15242,13 @@
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15259,7 +15260,7 @@
         <v>415</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15281,7 +15282,7 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>78</v>
@@ -15293,7 +15294,7 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>418</v>
@@ -15330,7 +15331,7 @@
         <v>78</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>422</v>
@@ -15360,13 +15361,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15378,7 +15379,7 @@
         <v>425</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>426</v>
@@ -15400,7 +15401,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15412,7 +15413,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>429</v>
@@ -15447,7 +15448,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>432</v>
@@ -15477,13 +15478,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15517,7 +15518,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15529,7 +15530,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>439</v>
@@ -15566,7 +15567,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>440</v>
@@ -15596,13 +15597,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15648,7 +15649,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>448</v>
@@ -15685,7 +15686,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>452</v>
@@ -15721,7 +15722,7 @@
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15755,19 +15756,19 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>457</v>
@@ -15834,13 +15835,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15874,7 +15875,7 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
@@ -15886,7 +15887,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>466</v>
@@ -15951,13 +15952,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15991,16 +15992,16 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>471</v>
@@ -16070,13 +16071,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16193,7 +16194,7 @@
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16227,7 +16228,7 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16239,7 +16240,7 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>242</v>
@@ -16302,7 +16303,7 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
@@ -16335,7 +16336,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16354,16 +16355,16 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16425,7 +16426,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16465,13 +16466,13 @@
         <v>78</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>251</v>
@@ -16480,10 +16481,10 @@
         <v>252</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>78</v>
@@ -16544,13 +16545,13 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>78</v>
@@ -16575,10 +16576,10 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -16590,7 +16591,7 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>488</v>
@@ -16650,16 +16651,16 @@
         <v>487</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16690,10 +16691,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16769,16 +16770,16 @@
         <v>491</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16814,7 +16815,7 @@
         <v>79</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16911,7 +16912,7 @@
         <v>405</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>406</v>
@@ -16933,7 +16934,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -16945,7 +16946,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>242</v>
@@ -17008,7 +17009,7 @@
         <v>79</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
@@ -17041,7 +17042,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17060,16 +17061,16 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L127" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17131,7 +17132,7 @@
         <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>78</v>
@@ -17171,13 +17172,13 @@
         <v>78</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>251</v>
@@ -17186,10 +17187,10 @@
         <v>252</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>78</v>
@@ -17250,13 +17251,13 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>78</v>
@@ -17284,16 +17285,16 @@
         <v>79</v>
       </c>
       <c r="F129" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I129" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>412</v>
@@ -17359,13 +17360,13 @@
         <v>79</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17377,7 +17378,7 @@
         <v>415</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17399,7 +17400,7 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>78</v>
@@ -17411,7 +17412,7 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>242</v>
@@ -17474,7 +17475,7 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
@@ -17507,7 +17508,7 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17526,16 +17527,16 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17582,7 +17583,7 @@
         <v>78</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE131" t="s" s="2">
         <v>248</v>
@@ -17597,7 +17598,7 @@
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17631,19 +17632,19 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I132" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>505</v>
@@ -17708,19 +17709,19 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>509</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>78</v>
@@ -17748,19 +17749,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>511</v>
@@ -17795,7 +17796,7 @@
         <v>78</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>514</v>
@@ -17825,19 +17826,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17865,16 +17866,16 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>518</v>
@@ -17942,13 +17943,13 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -17982,7 +17983,7 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>78</v>
@@ -17994,7 +17995,7 @@
         <v>78</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>242</v>
@@ -18057,7 +18058,7 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
@@ -18090,7 +18091,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18109,16 +18110,16 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L136" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -18165,7 +18166,7 @@
         <v>78</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>248</v>
@@ -18180,7 +18181,7 @@
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18214,19 +18215,19 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I137" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>527</v>
@@ -18263,7 +18264,7 @@
         <v>78</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X137" t="s" s="2">
         <v>531</v>
@@ -18293,13 +18294,13 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18333,16 +18334,16 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I138" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>214</v>
@@ -18382,7 +18383,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>540</v>
@@ -18412,13 +18413,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18452,19 +18453,19 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J139" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>544</v>
@@ -18531,13 +18532,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18568,22 +18569,22 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F140" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>552</v>
@@ -18648,13 +18649,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18688,19 +18689,19 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>559</v>
@@ -18763,13 +18764,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18803,16 +18804,16 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>564</v>
@@ -18880,13 +18881,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18920,19 +18921,19 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>571</v>
@@ -18997,19 +18998,19 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>78</v>
@@ -19034,10 +19035,10 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -19049,7 +19050,7 @@
         <v>78</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>418</v>
@@ -19086,7 +19087,7 @@
         <v>78</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X144" t="s" s="2">
         <v>422</v>
@@ -19116,13 +19117,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19134,7 +19135,7 @@
         <v>425</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>426</v>
@@ -19156,7 +19157,7 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19168,7 +19169,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>429</v>
@@ -19203,7 +19204,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>432</v>
@@ -19233,13 +19234,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19273,7 +19274,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19285,7 +19286,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>439</v>
@@ -19322,7 +19323,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>440</v>
@@ -19352,13 +19353,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19404,7 +19405,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>448</v>
@@ -19441,7 +19442,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>452</v>
@@ -19477,7 +19478,7 @@
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19511,19 +19512,19 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I148" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J148" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>457</v>
@@ -19590,13 +19591,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19630,7 +19631,7 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>78</v>
@@ -19642,7 +19643,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>466</v>
@@ -19707,13 +19708,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19747,16 +19748,16 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>471</v>
@@ -19826,13 +19827,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19949,7 +19950,7 @@
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -19983,7 +19984,7 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>78</v>
@@ -19995,7 +19996,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>242</v>
@@ -20058,7 +20059,7 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
@@ -20091,7 +20092,7 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20110,16 +20111,16 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K153" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -20181,7 +20182,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20221,13 +20222,13 @@
         <v>78</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>251</v>
@@ -20236,10 +20237,10 @@
         <v>252</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>78</v>
@@ -20300,13 +20301,13 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>78</v>
@@ -20331,10 +20332,10 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -20346,7 +20347,7 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>488</v>
@@ -20406,16 +20407,16 @@
         <v>487</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20446,10 +20447,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20525,16 +20526,16 @@
         <v>491</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20567,10 +20568,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20667,7 +20668,7 @@
         <v>405</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>406</v>
@@ -20689,7 +20690,7 @@
         <v>79</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20701,7 +20702,7 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>242</v>
@@ -20764,7 +20765,7 @@
         <v>79</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
@@ -20797,7 +20798,7 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20816,16 +20817,16 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20887,7 +20888,7 @@
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
@@ -20927,13 +20928,13 @@
         <v>78</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>251</v>
@@ -20942,10 +20943,10 @@
         <v>252</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>78</v>
@@ -21006,13 +21007,13 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>78</v>
@@ -21037,19 +21038,19 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I161" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>412</v>
@@ -21115,13 +21116,13 @@
         <v>79</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21133,7 +21134,7 @@
         <v>415</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>78</v>
@@ -21152,10 +21153,10 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>78</v>
@@ -21167,7 +21168,7 @@
         <v>78</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>418</v>
@@ -21204,7 +21205,7 @@
         <v>78</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X162" t="s" s="2">
         <v>422</v>
@@ -21234,13 +21235,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21252,7 +21253,7 @@
         <v>425</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>426</v>
@@ -21274,7 +21275,7 @@
         <v>79</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21286,7 +21287,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>429</v>
@@ -21321,7 +21322,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X163" s="2"/>
       <c r="Y163" t="s" s="2">
@@ -21349,13 +21350,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21389,7 +21390,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21401,7 +21402,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>439</v>
@@ -21438,7 +21439,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>440</v>
@@ -21468,13 +21469,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21520,7 +21521,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>579</v>
@@ -21557,7 +21558,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>452</v>
@@ -21593,7 +21594,7 @@
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21627,19 +21628,19 @@
         <v>79</v>
       </c>
       <c r="F166" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I166" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J166" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>457</v>
@@ -21706,13 +21707,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21746,7 +21747,7 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>78</v>
@@ -21758,7 +21759,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>466</v>
@@ -21823,13 +21824,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21863,16 +21864,16 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I168" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>471</v>
@@ -21942,13 +21943,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22065,7 +22066,7 @@
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22099,7 +22100,7 @@
         <v>79</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>78</v>
@@ -22111,7 +22112,7 @@
         <v>78</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>242</v>
@@ -22174,7 +22175,7 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
@@ -22207,7 +22208,7 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22226,16 +22227,16 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -22297,7 +22298,7 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22337,13 +22338,13 @@
         <v>78</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>251</v>
@@ -22352,10 +22353,10 @@
         <v>252</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>78</v>
@@ -22416,13 +22417,13 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>78</v>
@@ -22447,10 +22448,10 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>78</v>
@@ -22462,7 +22463,7 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>488</v>
@@ -22522,16 +22523,16 @@
         <v>487</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22562,10 +22563,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22641,16 +22642,16 @@
         <v>491</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22683,10 +22684,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22783,7 +22784,7 @@
         <v>405</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>406</v>
@@ -22805,7 +22806,7 @@
         <v>79</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22817,7 +22818,7 @@
         <v>78</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K176" t="s" s="2">
         <v>242</v>
@@ -22880,7 +22881,7 @@
         <v>79</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
@@ -22913,7 +22914,7 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22932,16 +22933,16 @@
         <v>78</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L177" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
@@ -23003,7 +23004,7 @@
         <v>78</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>78</v>
@@ -23043,13 +23044,13 @@
         <v>78</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I178" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>251</v>
@@ -23058,10 +23059,10 @@
         <v>252</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>78</v>
@@ -23122,13 +23123,13 @@
         <v>78</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>78</v>
@@ -23153,19 +23154,19 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F179" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I179" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F179" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G179" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H179" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I179" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J179" t="s" s="2">
         <v>581</v>
@@ -23231,13 +23232,13 @@
         <v>79</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>78</v>
@@ -23249,7 +23250,7 @@
         <v>415</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>78</v>
@@ -23268,10 +23269,10 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>78</v>
@@ -23283,7 +23284,7 @@
         <v>78</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>418</v>
@@ -23320,7 +23321,7 @@
         <v>78</v>
       </c>
       <c r="W180" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X180" t="s" s="2">
         <v>422</v>
@@ -23350,13 +23351,13 @@
         <v>79</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>78</v>
@@ -23368,7 +23369,7 @@
         <v>425</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>426</v>
@@ -23390,7 +23391,7 @@
         <v>79</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>78</v>
@@ -23402,7 +23403,7 @@
         <v>78</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>429</v>
@@ -23437,7 +23438,7 @@
         <v>78</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X181" t="s" s="2">
         <v>432</v>
@@ -23467,13 +23468,13 @@
         <v>79</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>78</v>
@@ -23507,7 +23508,7 @@
         <v>79</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>78</v>
@@ -23519,7 +23520,7 @@
         <v>78</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>439</v>
@@ -23556,7 +23557,7 @@
         <v>78</v>
       </c>
       <c r="W182" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X182" t="s" s="2">
         <v>440</v>
@@ -23586,13 +23587,13 @@
         <v>79</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>78</v>
@@ -23638,7 +23639,7 @@
         <v>78</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>448</v>
@@ -23675,7 +23676,7 @@
         <v>78</v>
       </c>
       <c r="W183" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X183" t="s" s="2">
         <v>452</v>
@@ -23711,7 +23712,7 @@
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>78</v>
@@ -23745,19 +23746,19 @@
         <v>79</v>
       </c>
       <c r="F184" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I184" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G184" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J184" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>457</v>
@@ -23824,13 +23825,13 @@
         <v>79</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>78</v>
@@ -23864,7 +23865,7 @@
         <v>79</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>78</v>
@@ -23876,7 +23877,7 @@
         <v>78</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>466</v>
@@ -23941,13 +23942,13 @@
         <v>79</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>78</v>
@@ -23981,16 +23982,16 @@
         <v>79</v>
       </c>
       <c r="F186" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I186" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>471</v>
@@ -24060,13 +24061,13 @@
         <v>79</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>78</v>
@@ -24183,7 +24184,7 @@
         <v>78</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>78</v>
@@ -24217,7 +24218,7 @@
         <v>79</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>78</v>
@@ -24229,7 +24230,7 @@
         <v>78</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K188" t="s" s="2">
         <v>242</v>
@@ -24292,7 +24293,7 @@
         <v>79</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>78</v>
@@ -24325,7 +24326,7 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24344,16 +24345,16 @@
         <v>78</v>
       </c>
       <c r="J189" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K189" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
@@ -24415,7 +24416,7 @@
         <v>78</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>78</v>
@@ -24455,13 +24456,13 @@
         <v>78</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K190" t="s" s="2">
         <v>251</v>
@@ -24470,10 +24471,10 @@
         <v>252</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>78</v>
@@ -24534,13 +24535,13 @@
         <v>78</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL190" t="s" s="2">
         <v>78</v>
@@ -24565,10 +24566,10 @@
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>78</v>
@@ -24580,7 +24581,7 @@
         <v>78</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>488</v>
@@ -24640,16 +24641,16 @@
         <v>487</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>78</v>
@@ -24680,10 +24681,10 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>78</v>
@@ -24759,16 +24760,16 @@
         <v>491</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>78</v>
